--- a/wujian100_sim/reg_model/Excel/wujian100_dma_reg_spec.xlsx
+++ b/wujian100_sim/reg_model/Excel/wujian100_dma_reg_spec.xlsx
@@ -1122,31 +1122,31 @@
     <t>CH15_CTRL_B</t>
   </si>
   <si>
+    <t>0x2E0</t>
+  </si>
+  <si>
+    <t>CH15_INT_MASK</t>
+  </si>
+  <si>
+    <t>0x2E4</t>
+  </si>
+  <si>
+    <t>CH15_INT_STATUS</t>
+  </si>
+  <si>
+    <t>0x2E8</t>
+  </si>
+  <si>
+    <t>CH15_INT_CLEAR</t>
+  </si>
+  <si>
+    <t>0x2EC</t>
+  </si>
+  <si>
+    <t>CH15_SOFT_REQ</t>
+  </si>
+  <si>
     <t>0x2F0</t>
-  </si>
-  <si>
-    <t>CH15_INT_MASK</t>
-  </si>
-  <si>
-    <t>0x2F4</t>
-  </si>
-  <si>
-    <t>CH15_INT_STATUS</t>
-  </si>
-  <si>
-    <t>0x2F8</t>
-  </si>
-  <si>
-    <t>CH15_INT_CLEAR</t>
-  </si>
-  <si>
-    <t>0x2FC</t>
-  </si>
-  <si>
-    <t>CH15_SOFT_REQ</t>
-  </si>
-  <si>
-    <t>0x300</t>
   </si>
   <si>
     <t>CH15_EN</t>
@@ -2707,9 +2707,9 @@
   <dimension ref="A1:K580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A551" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D385" sqref="D385:D386"/>
+      <selection pane="bottomLeft" activeCell="C560" sqref="C560:C561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2728,7 +2728,7 @@
     <col min="13" max="1025" width="9.54166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2796,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:11">
+    <row r="3" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:11">
+    <row r="4" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:11">
+    <row r="5" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:11">
+    <row r="6" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:11">
+    <row r="7" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="K7" s="13"/>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:11">
+    <row r="8" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:11">
+    <row r="9" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:11">
+    <row r="10" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:11">
+    <row r="11" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:11">
+    <row r="12" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:11">
+    <row r="13" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="K13" s="13"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:11">
+    <row r="14" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="K14" s="13"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:11">
+    <row r="15" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:11">
+    <row r="16" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="K16" s="13"/>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:11">
+    <row r="17" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:11">
+    <row r="18" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="K18" s="13"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:11">
+    <row r="19" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="K19" s="13"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:11">
+    <row r="20" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:11">
+    <row r="21" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:11">
+    <row r="22" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3233,7 +3233,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:11">
+    <row r="23" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9" t="s">
@@ -3260,7 +3260,7 @@
       <c r="J23"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:11">
+    <row r="24" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:11">
+    <row r="25" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:11">
+    <row r="26" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:11">
+    <row r="27" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:11">
+    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9" t="s">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:11">
+    <row r="29" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:11">
+    <row r="30" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:11">
+    <row r="31" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:11">
+    <row r="32" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -3454,7 +3454,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:11">
+    <row r="33" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9" t="s">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:11">
+    <row r="34" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:11">
+    <row r="35" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9" t="s">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:11">
+    <row r="36" s="2" customFormat="1" ht="14.25" spans="1:11">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -3548,7 +3548,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" ht="14.25" spans="1:10">
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9" t="s">
@@ -3576,7 +3576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" ht="14.25" spans="1:10">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9" t="s">
@@ -3604,7 +3604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" ht="14.25" spans="1:10">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9" t="s">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" ht="14.25" spans="1:10">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -3650,7 +3650,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" ht="14.25" spans="1:10">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" ht="14.25" spans="1:10">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -3688,7 +3688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" ht="14.25" spans="1:10">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -3708,7 +3708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" ht="14.25" spans="1:10">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -3728,7 +3728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" ht="14.25" spans="1:10">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -3748,7 +3748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" ht="14.25" spans="1:10">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" ht="14.25" spans="1:10">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -3794,7 +3794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" ht="14.25" spans="1:10">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -3814,7 +3814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" ht="14.25" spans="1:10">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -3834,7 +3834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" ht="14.25" spans="1:10">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" ht="14.25" spans="1:10">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -3872,7 +3872,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" ht="14.25" spans="1:10">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -3892,7 +3892,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" ht="14.25" spans="1:10">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" ht="14.25" spans="1:10">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -3938,7 +3938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" ht="14.25" spans="1:10">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3958,7 +3958,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" ht="14.25" spans="1:10">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3978,7 +3978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" ht="14.25" spans="1:10">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3998,7 +3998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" ht="14.25" spans="1:10">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="J58"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" ht="14.25" spans="1:10">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4044,7 +4044,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" ht="14.25" spans="1:10">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -4064,7 +4064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" ht="14.25" spans="1:10">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4084,7 +4084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" ht="14.25" spans="1:10">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -4104,7 +4104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" ht="14.25" spans="1:10">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9" t="s">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" ht="14.25" spans="1:10">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -4150,7 +4150,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" ht="14.25" spans="1:10">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -4170,7 +4170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" ht="14.25" spans="1:10">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -4190,7 +4190,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" ht="14.25" spans="1:10">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -4210,7 +4210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" ht="14.25" spans="1:10">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9" t="s">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" ht="14.25" spans="1:10">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -4256,7 +4256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" ht="14.25" spans="1:10">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9" t="s">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" ht="14.25" spans="1:10">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -4302,7 +4302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" ht="14.25" spans="1:10">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9" t="s">
@@ -4330,7 +4330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" ht="14.25" spans="1:10">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9" t="s">
@@ -4358,7 +4358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" ht="14.25" spans="1:10">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9" t="s">
@@ -4384,7 +4384,7 @@
       </c>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" ht="14.25" spans="1:10">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -4404,7 +4404,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" ht="14.25" spans="1:10">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" ht="14.25" spans="1:10">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -4442,7 +4442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" ht="14.25" spans="1:10">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -4462,7 +4462,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" ht="14.25" spans="1:10">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -4482,7 +4482,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" ht="14.25" spans="1:10">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -4502,7 +4502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" ht="14.25" spans="1:10">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9" t="s">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" ht="14.25" spans="1:10">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -4548,7 +4548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" ht="14.25" spans="1:10">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4568,7 +4568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" ht="14.25" spans="1:10">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -4588,7 +4588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" ht="14.25" spans="1:10">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" ht="14.25" spans="1:10">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -4626,7 +4626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" ht="14.25" spans="1:10">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -4646,7 +4646,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" ht="14.25" spans="1:10">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" ht="14.25" spans="1:10">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4692,7 +4692,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" ht="14.25" spans="1:10">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4712,7 +4712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" ht="14.25" spans="1:10">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4732,7 +4732,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" ht="14.25" spans="1:10">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4752,7 +4752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" ht="14.25" spans="1:10">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9" t="s">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="J93"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" ht="14.25" spans="1:10">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4798,7 +4798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" ht="14.25" spans="1:10">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4818,7 +4818,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" ht="14.25" spans="1:10">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4838,7 +4838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" ht="14.25" spans="1:10">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4858,7 +4858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" ht="14.25" spans="1:10">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9" t="s">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" ht="14.25" spans="1:10">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4904,7 +4904,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" ht="14.25" spans="1:10">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4924,7 +4924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" ht="14.25" spans="1:10">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4944,7 +4944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" ht="14.25" spans="1:10">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4964,7 +4964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" ht="14.25" spans="1:10">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9" t="s">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" ht="14.25" spans="1:10">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -5010,7 +5010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" ht="14.25" spans="1:10">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9" t="s">
@@ -5036,7 +5036,7 @@
       </c>
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" ht="14.25" spans="1:10">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -5056,7 +5056,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" ht="14.25" spans="1:10">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9" t="s">
@@ -5084,7 +5084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" ht="14.25" spans="1:10">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9" t="s">
@@ -5112,7 +5112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" ht="14.25" spans="1:10">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9" t="s">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" ht="14.25" spans="1:10">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -5158,7 +5158,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" ht="14.25" spans="1:10">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" ht="14.25" spans="1:10">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -5196,7 +5196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" ht="14.25" spans="1:10">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -5216,7 +5216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" ht="14.25" spans="1:10">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -5236,7 +5236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" ht="14.25" spans="1:10">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5256,7 +5256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" ht="14.25" spans="1:10">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9" t="s">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" ht="14.25" spans="1:10">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -5302,7 +5302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" ht="14.25" spans="1:10">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -5322,7 +5322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" ht="14.25" spans="1:10">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -5342,7 +5342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" ht="14.25" spans="1:10">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -5360,7 +5360,7 @@
       </c>
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" ht="14.25" spans="1:10">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5380,7 +5380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" ht="14.25" spans="1:10">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5400,7 +5400,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" ht="14.25" spans="1:10">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9" t="s">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" ht="14.25" spans="1:10">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5446,7 +5446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" ht="14.25" spans="1:10">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5466,7 +5466,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" ht="14.25" spans="1:10">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5486,7 +5486,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" ht="14.25" spans="1:10">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5506,7 +5506,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" ht="14.25" spans="1:10">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9" t="s">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="J128"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" ht="14.25" spans="1:10">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5552,7 +5552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" ht="14.25" spans="1:10">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5572,7 +5572,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" ht="14.25" spans="1:10">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -5592,7 +5592,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" ht="14.25" spans="1:10">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5612,7 +5612,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" ht="14.25" spans="1:10">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9" t="s">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" ht="14.25" spans="1:10">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5658,7 +5658,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" ht="14.25" spans="1:10">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5678,7 +5678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" ht="14.25" spans="1:10">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5698,7 +5698,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" ht="14.25" spans="1:10">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5718,7 +5718,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" ht="14.25" spans="1:10">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9" t="s">
@@ -5744,7 +5744,7 @@
       </c>
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" ht="14.25" spans="1:10">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5764,7 +5764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" ht="14.25" spans="1:10">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9" t="s">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" ht="14.25" spans="1:10">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5810,7 +5810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" ht="14.25" spans="1:10">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9" t="s">
@@ -5838,7 +5838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" ht="14.25" spans="1:10">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="10" t="s">
@@ -5866,7 +5866,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" ht="14.25" spans="1:10">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9" t="s">
@@ -5892,7 +5892,7 @@
       </c>
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" ht="14.25" spans="1:10">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5912,7 +5912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" ht="14.25" spans="1:10">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" ht="14.25" spans="1:10">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5950,7 +5950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" ht="14.25" spans="1:10">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5970,7 +5970,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" ht="14.25" spans="1:10">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5990,7 +5990,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" ht="14.25" spans="1:10">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -6010,7 +6010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" ht="14.25" spans="1:10">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9" t="s">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" ht="14.25" spans="1:10">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -6056,7 +6056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" ht="14.25" spans="1:10">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -6076,7 +6076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" ht="14.25" spans="1:10">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -6096,7 +6096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" ht="14.25" spans="1:10">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -6114,7 +6114,7 @@
       </c>
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" ht="14.25" spans="1:10">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -6134,7 +6134,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" ht="14.25" spans="1:10">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -6154,7 +6154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" ht="14.25" spans="1:10">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9" t="s">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" ht="14.25" spans="1:10">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -6200,7 +6200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" ht="14.25" spans="1:10">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -6220,7 +6220,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" ht="14.25" spans="1:10">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -6240,7 +6240,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" ht="14.25" spans="1:10">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -6260,7 +6260,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" ht="14.25" spans="1:10">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9" t="s">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" ht="14.25" spans="1:10">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -6306,7 +6306,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" ht="14.25" spans="1:10">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -6326,7 +6326,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" ht="14.25" spans="1:10">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -6346,7 +6346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" ht="14.25" spans="1:10">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -6366,7 +6366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" ht="14.25" spans="1:10">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9" t="s">
@@ -6392,7 +6392,7 @@
       </c>
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" ht="14.25" spans="1:10">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -6412,7 +6412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" ht="14.25" spans="1:10">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6432,7 +6432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" ht="14.25" spans="1:10">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6452,7 +6452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" ht="14.25" spans="1:10">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6472,7 +6472,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" ht="14.25" spans="1:10">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9" t="s">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" ht="14.25" spans="1:10">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6518,7 +6518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" ht="14.25" spans="1:10">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9" t="s">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" ht="14.25" spans="1:10">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6564,7 +6564,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" ht="14.25" spans="1:10">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9" t="s">
@@ -6592,7 +6592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" ht="14.25" spans="1:10">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9" t="s">
@@ -6620,7 +6620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" ht="14.25" spans="1:10">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9" t="s">
@@ -6646,7 +6646,7 @@
       </c>
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" ht="14.25" spans="1:10">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6666,7 +6666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" ht="14.25" spans="1:10">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" ht="14.25" spans="1:10">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6704,7 +6704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" ht="14.25" spans="1:10">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6724,7 +6724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" ht="14.25" spans="1:10">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6744,7 +6744,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" ht="14.25" spans="1:10">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6764,7 +6764,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" ht="14.25" spans="1:10">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9" t="s">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" ht="14.25" spans="1:10">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6810,7 +6810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" ht="14.25" spans="1:10">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6830,7 +6830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" ht="14.25" spans="1:10">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6850,7 +6850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" ht="14.25" spans="1:10">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" ht="14.25" spans="1:10">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6888,7 +6888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" ht="14.25" spans="1:10">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6908,7 +6908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" ht="14.25" spans="1:10">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9" t="s">
@@ -6934,7 +6934,7 @@
       </c>
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" ht="14.25" spans="1:10">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6954,7 +6954,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" ht="14.25" spans="1:10">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6974,7 +6974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" ht="14.25" spans="1:10">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6994,7 +6994,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" ht="14.25" spans="1:10">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -7014,7 +7014,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" ht="14.25" spans="1:10">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9" t="s">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="J198"/>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" ht="14.25" spans="1:10">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -7060,7 +7060,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" ht="14.25" spans="1:10">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -7080,7 +7080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" ht="14.25" spans="1:10">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -7100,7 +7100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" ht="14.25" spans="1:10">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -7120,7 +7120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" ht="14.25" spans="1:10">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9" t="s">
@@ -7146,7 +7146,7 @@
       </c>
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" ht="14.25" spans="1:10">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7166,7 +7166,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" ht="14.25" spans="1:10">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7186,7 +7186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" ht="14.25" spans="1:10">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7206,7 +7206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" ht="14.25" spans="1:10">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7226,7 +7226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" ht="14.25" spans="1:10">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9" t="s">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" ht="14.25" spans="1:10">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7272,7 +7272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" ht="14.25" spans="1:10">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9" t="s">
@@ -7298,7 +7298,7 @@
       </c>
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" ht="14.25" spans="1:10">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7318,7 +7318,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" ht="14.25" spans="1:10">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9" t="s">
@@ -7346,7 +7346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" ht="14.25" spans="1:10">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9" t="s">
@@ -7374,7 +7374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" ht="14.25" spans="1:10">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9" t="s">
@@ -7400,7 +7400,7 @@
       </c>
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" ht="14.25" spans="1:10">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7420,7 +7420,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" ht="14.25" spans="1:10">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" ht="14.25" spans="1:10">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7458,7 +7458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" ht="14.25" spans="1:10">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7478,7 +7478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" ht="14.25" spans="1:10">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7498,7 +7498,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" ht="14.25" spans="1:10">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7518,7 +7518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" ht="14.25" spans="1:10">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9" t="s">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" ht="14.25" spans="1:10">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7564,7 +7564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" ht="14.25" spans="1:10">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7584,7 +7584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" ht="14.25" spans="1:10">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7604,7 +7604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" ht="14.25" spans="1:10">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7622,7 +7622,7 @@
       </c>
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" ht="14.25" spans="1:10">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7642,7 +7642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" ht="14.25" spans="1:10">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7662,7 +7662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" ht="14.25" spans="1:10">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9" t="s">
@@ -7688,7 +7688,7 @@
       </c>
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" ht="14.25" spans="1:10">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7708,7 +7708,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" ht="14.25" spans="1:10">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7728,7 +7728,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" ht="14.25" spans="1:10">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7748,7 +7748,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" ht="14.25" spans="1:10">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7768,7 +7768,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" ht="14.25" spans="1:10">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9" t="s">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="J233"/>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" ht="14.25" spans="1:10">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -7814,7 +7814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" ht="14.25" spans="1:10">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -7834,7 +7834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" ht="14.25" spans="1:10">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -7854,7 +7854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" ht="14.25" spans="1:10">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -7874,7 +7874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" ht="14.25" spans="1:10">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9" t="s">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="J238" s="2"/>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" ht="14.25" spans="1:10">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -7920,7 +7920,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" ht="14.25" spans="1:10">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -7940,7 +7940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" ht="14.25" spans="1:10">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -7960,7 +7960,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" ht="14.25" spans="1:10">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -7980,7 +7980,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" ht="14.25" spans="1:10">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9" t="s">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="J243" s="2"/>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" ht="14.25" spans="1:10">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8026,7 +8026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" ht="14.25" spans="1:10">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9" t="s">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="J245" s="2"/>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" ht="14.25" spans="1:10">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8072,7 +8072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" ht="14.25" spans="1:10">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9" t="s">
@@ -8100,7 +8100,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" ht="14.25" spans="1:10">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9" t="s">
@@ -8128,7 +8128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" ht="14.25" spans="1:10">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9" t="s">
@@ -8154,7 +8154,7 @@
       </c>
       <c r="J249" s="2"/>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" ht="14.25" spans="1:10">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8174,7 +8174,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" ht="14.25" spans="1:10">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="J251" s="2"/>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" ht="14.25" spans="1:10">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8212,7 +8212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" ht="14.25" spans="1:10">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8232,7 +8232,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" ht="14.25" spans="1:10">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8252,7 +8252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" ht="14.25" spans="1:10">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8272,7 +8272,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" ht="14.25" spans="1:10">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9" t="s">
@@ -8298,7 +8298,7 @@
       </c>
       <c r="J256" s="2"/>
     </row>
-    <row r="257" spans="1:10">
+    <row r="257" ht="14.25" spans="1:10">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8318,7 +8318,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="258" spans="1:10">
+    <row r="258" ht="14.25" spans="1:10">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8338,7 +8338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="259" spans="1:10">
+    <row r="259" ht="14.25" spans="1:10">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8358,7 +8358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:10">
+    <row r="260" ht="14.25" spans="1:10">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8376,7 +8376,7 @@
       </c>
       <c r="J260" s="2"/>
     </row>
-    <row r="261" spans="1:10">
+    <row r="261" ht="14.25" spans="1:10">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8396,7 +8396,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" ht="14.25" spans="1:10">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8416,7 +8416,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" ht="14.25" spans="1:10">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9" t="s">
@@ -8442,7 +8442,7 @@
       </c>
       <c r="J263" s="2"/>
     </row>
-    <row r="264" spans="1:10">
+    <row r="264" ht="14.25" spans="1:10">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8462,7 +8462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:10">
+    <row r="265" ht="14.25" spans="1:10">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -8482,7 +8482,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="266" spans="1:10">
+    <row r="266" ht="14.25" spans="1:10">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -8502,7 +8502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="267" spans="1:10">
+    <row r="267" ht="14.25" spans="1:10">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -8522,7 +8522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="268" spans="1:10">
+    <row r="268" ht="14.25" spans="1:10">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9" t="s">
@@ -8548,7 +8548,7 @@
       </c>
       <c r="J268"/>
     </row>
-    <row r="269" spans="1:10">
+    <row r="269" ht="14.25" spans="1:10">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -8568,7 +8568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="270" spans="1:10">
+    <row r="270" ht="14.25" spans="1:10">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -8588,7 +8588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="1:10">
+    <row r="271" ht="14.25" spans="1:10">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -8608,7 +8608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="272" spans="1:10">
+    <row r="272" ht="14.25" spans="1:10">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -8628,7 +8628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:10">
+    <row r="273" ht="14.25" spans="1:10">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9" t="s">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="J273" s="2"/>
     </row>
-    <row r="274" spans="1:10">
+    <row r="274" ht="14.25" spans="1:10">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -8674,7 +8674,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="275" spans="1:10">
+    <row r="275" ht="14.25" spans="1:10">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -8694,7 +8694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" ht="14.25" spans="1:10">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -8714,7 +8714,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" ht="14.25" spans="1:10">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -8734,7 +8734,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" ht="14.25" spans="1:10">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9" t="s">
@@ -8760,7 +8760,7 @@
       </c>
       <c r="J278" s="2"/>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" ht="14.25" spans="1:10">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -8780,7 +8780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" ht="14.25" spans="1:10">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9" t="s">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="J280" s="2"/>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" ht="14.25" spans="1:10">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -8826,7 +8826,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" ht="14.25" spans="1:10">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9" t="s">
@@ -8854,7 +8854,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" ht="14.25" spans="1:10">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="10" t="s">
@@ -8882,7 +8882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" ht="14.25" spans="1:10">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9" t="s">
@@ -8908,7 +8908,7 @@
       </c>
       <c r="J284" s="2"/>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" ht="14.25" spans="1:10">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -8928,7 +8928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" ht="14.25" spans="1:10">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="J286" s="2"/>
     </row>
-    <row r="287" spans="1:10">
+    <row r="287" ht="14.25" spans="1:10">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -8966,7 +8966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" ht="14.25" spans="1:10">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -8986,7 +8986,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:10">
+    <row r="289" ht="14.25" spans="1:10">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9006,7 +9006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" ht="14.25" spans="1:10">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9026,7 +9026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:10">
+    <row r="291" ht="14.25" spans="1:10">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9" t="s">
@@ -9052,7 +9052,7 @@
       </c>
       <c r="J291" s="2"/>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" ht="14.25" spans="1:10">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9072,7 +9072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" ht="14.25" spans="1:10">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9092,7 +9092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" ht="14.25" spans="1:10">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9112,7 +9112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" ht="14.25" spans="1:10">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9130,7 +9130,7 @@
       </c>
       <c r="J295" s="2"/>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" ht="14.25" spans="1:10">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9150,7 +9150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" ht="14.25" spans="1:10">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -9170,7 +9170,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" ht="14.25" spans="1:10">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9" t="s">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="J298" s="2"/>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" ht="14.25" spans="1:10">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -9216,7 +9216,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" ht="14.25" spans="1:10">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -9236,7 +9236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" ht="14.25" spans="1:10">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -9256,7 +9256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" ht="14.25" spans="1:10">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -9276,7 +9276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" ht="14.25" spans="1:10">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9" t="s">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="J303"/>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" ht="14.25" spans="1:10">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -9322,7 +9322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" ht="14.25" spans="1:10">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -9342,7 +9342,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" ht="14.25" spans="1:10">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -9362,7 +9362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" ht="14.25" spans="1:10">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -9382,7 +9382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" ht="14.25" spans="1:10">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9" t="s">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="J308" s="2"/>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" ht="14.25" spans="1:10">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -9428,7 +9428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" ht="14.25" spans="1:10">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -9448,7 +9448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" ht="14.25" spans="1:10">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -9468,7 +9468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" ht="14.25" spans="1:10">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -9488,7 +9488,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="313" spans="1:10">
+    <row r="313" ht="14.25" spans="1:10">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9" t="s">
@@ -9514,7 +9514,7 @@
       </c>
       <c r="J313" s="2"/>
     </row>
-    <row r="314" spans="1:10">
+    <row r="314" ht="14.25" spans="1:10">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -9534,7 +9534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" ht="14.25" spans="1:10">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9" t="s">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="J315" s="2"/>
     </row>
-    <row r="316" spans="1:10">
+    <row r="316" ht="14.25" spans="1:10">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -9580,7 +9580,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" ht="14.25" spans="1:10">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9" t="s">
@@ -9608,7 +9608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" ht="14.25" spans="1:10">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9" t="s">
@@ -9636,7 +9636,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" ht="14.25" spans="1:10">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9" t="s">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="J319" s="2"/>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" ht="14.25" spans="1:10">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -9682,7 +9682,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:10">
+    <row r="321" ht="14.25" spans="1:10">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="J321" s="2"/>
     </row>
-    <row r="322" spans="1:10">
+    <row r="322" ht="14.25" spans="1:10">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -9720,7 +9720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" ht="14.25" spans="1:10">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -9740,7 +9740,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="324" spans="1:10">
+    <row r="324" ht="14.25" spans="1:10">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -9760,7 +9760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:10">
+    <row r="325" ht="14.25" spans="1:10">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -9780,7 +9780,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="326" spans="1:10">
+    <row r="326" ht="14.25" spans="1:10">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9" t="s">
@@ -9806,7 +9806,7 @@
       </c>
       <c r="J326" s="2"/>
     </row>
-    <row r="327" spans="1:10">
+    <row r="327" ht="14.25" spans="1:10">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -9826,7 +9826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="328" spans="1:10">
+    <row r="328" ht="14.25" spans="1:10">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -9846,7 +9846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="329" spans="1:10">
+    <row r="329" ht="14.25" spans="1:10">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -9866,7 +9866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="330" spans="1:10">
+    <row r="330" ht="14.25" spans="1:10">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -9884,7 +9884,7 @@
       </c>
       <c r="J330" s="2"/>
     </row>
-    <row r="331" spans="1:10">
+    <row r="331" ht="14.25" spans="1:10">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -9904,7 +9904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="332" spans="1:10">
+    <row r="332" ht="14.25" spans="1:10">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -9924,7 +9924,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="333" spans="1:10">
+    <row r="333" ht="14.25" spans="1:10">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9" t="s">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="J333" s="2"/>
     </row>
-    <row r="334" spans="1:10">
+    <row r="334" ht="14.25" spans="1:10">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -9970,7 +9970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="335" spans="1:10">
+    <row r="335" ht="14.25" spans="1:10">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -9990,7 +9990,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="336" spans="1:10">
+    <row r="336" ht="14.25" spans="1:10">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -10010,7 +10010,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:10">
+    <row r="337" ht="14.25" spans="1:10">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -10030,7 +10030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="338" spans="1:10">
+    <row r="338" ht="14.25" spans="1:10">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9" t="s">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="J338"/>
     </row>
-    <row r="339" spans="1:10">
+    <row r="339" ht="14.25" spans="1:10">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -10076,7 +10076,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="340" spans="1:10">
+    <row r="340" ht="14.25" spans="1:10">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -10096,7 +10096,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="341" spans="1:10">
+    <row r="341" ht="14.25" spans="1:10">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -10116,7 +10116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="342" spans="1:10">
+    <row r="342" ht="14.25" spans="1:10">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -10136,7 +10136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="343" spans="1:10">
+    <row r="343" ht="14.25" spans="1:10">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9" t="s">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="J343" s="2"/>
     </row>
-    <row r="344" spans="1:10">
+    <row r="344" ht="14.25" spans="1:10">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -10182,7 +10182,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="345" spans="1:10">
+    <row r="345" ht="14.25" spans="1:10">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -10202,7 +10202,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="346" spans="1:10">
+    <row r="346" ht="14.25" spans="1:10">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -10222,7 +10222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" ht="14.25" spans="1:10">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -10242,7 +10242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" ht="14.25" spans="1:10">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9" t="s">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="J348" s="2"/>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" ht="14.25" spans="1:10">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -10288,7 +10288,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" ht="14.25" spans="1:10">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9" t="s">
@@ -10314,7 +10314,7 @@
       </c>
       <c r="J350" s="2"/>
     </row>
-    <row r="351" spans="1:10">
+    <row r="351" ht="14.25" spans="1:10">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -10334,7 +10334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="352" spans="1:10">
+    <row r="352" ht="14.25" spans="1:10">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9" t="s">
@@ -10362,7 +10362,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="353" spans="1:10">
+    <row r="353" ht="14.25" spans="1:10">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9" t="s">
@@ -10390,7 +10390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="354" spans="1:10">
+    <row r="354" ht="14.25" spans="1:10">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9" t="s">
@@ -10416,7 +10416,7 @@
       </c>
       <c r="J354" s="2"/>
     </row>
-    <row r="355" spans="1:10">
+    <row r="355" ht="14.25" spans="1:10">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -10436,7 +10436,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="356" spans="1:10">
+    <row r="356" ht="14.25" spans="1:10">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="J356" s="2"/>
     </row>
-    <row r="357" spans="1:10">
+    <row r="357" ht="14.25" spans="1:10">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -10474,7 +10474,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="358" spans="1:10">
+    <row r="358" ht="14.25" spans="1:10">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -10494,7 +10494,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="359" spans="1:10">
+    <row r="359" ht="14.25" spans="1:10">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -10514,7 +10514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="360" spans="1:10">
+    <row r="360" ht="14.25" spans="1:10">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -10534,7 +10534,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="361" spans="1:10">
+    <row r="361" ht="14.25" spans="1:10">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9" t="s">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="J361" s="2"/>
     </row>
-    <row r="362" spans="1:10">
+    <row r="362" ht="14.25" spans="1:10">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -10580,7 +10580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" ht="14.25" spans="1:10">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -10600,7 +10600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" ht="14.25" spans="1:10">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -10620,7 +10620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" ht="14.25" spans="1:10">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="J365" s="2"/>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" ht="14.25" spans="1:10">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -10658,7 +10658,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" ht="14.25" spans="1:10">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -10678,7 +10678,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" ht="14.25" spans="1:10">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9" t="s">
@@ -10704,7 +10704,7 @@
       </c>
       <c r="J368" s="2"/>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" ht="14.25" spans="1:10">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -10724,7 +10724,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" ht="14.25" spans="1:10">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -10744,7 +10744,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" ht="14.25" spans="1:10">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -10764,7 +10764,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" ht="14.25" spans="1:10">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -10784,7 +10784,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" ht="14.25" spans="1:10">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9" t="s">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" ht="14.25" spans="1:10">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -10830,7 +10830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" ht="14.25" spans="1:10">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -10850,7 +10850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" ht="14.25" spans="1:10">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -10870,7 +10870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" ht="14.25" spans="1:10">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -10890,7 +10890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" ht="14.25" spans="1:10">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9" t="s">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="J378" s="2"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" ht="14.25" spans="1:10">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -10936,7 +10936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" ht="14.25" spans="1:10">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -10956,7 +10956,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" ht="14.25" spans="1:10">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -10976,7 +10976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" ht="14.25" spans="1:10">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -10996,7 +10996,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" ht="14.25" spans="1:10">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9" t="s">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="J383" s="2"/>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" ht="14.25" spans="1:10">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -11042,7 +11042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" ht="14.25" spans="1:10">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9" t="s">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="J385" s="2"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" ht="14.25" spans="1:10">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -11088,7 +11088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" ht="14.25" spans="1:10">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9" t="s">
@@ -11116,7 +11116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" ht="14.25" spans="1:10">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9" t="s">
@@ -11144,7 +11144,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" ht="14.25" spans="1:10">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9" t="s">
@@ -11170,7 +11170,7 @@
       </c>
       <c r="J389" s="2"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" ht="14.25" spans="1:10">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -11190,7 +11190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" ht="14.25" spans="1:10">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -11208,7 +11208,7 @@
       </c>
       <c r="J391" s="2"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" ht="14.25" spans="1:10">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -11228,7 +11228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" ht="14.25" spans="1:10">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -11248,7 +11248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" ht="14.25" spans="1:10">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -11268,7 +11268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" ht="14.25" spans="1:10">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -11288,7 +11288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" ht="14.25" spans="1:10">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9" t="s">
@@ -11314,7 +11314,7 @@
       </c>
       <c r="J396" s="2"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" ht="14.25" spans="1:10">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -11334,7 +11334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" ht="14.25" spans="1:10">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -11354,7 +11354,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" ht="14.25" spans="1:10">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -11374,7 +11374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" ht="14.25" spans="1:10">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="J400" s="2"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" ht="14.25" spans="1:10">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -11412,7 +11412,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" ht="14.25" spans="1:10">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -11432,7 +11432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" ht="14.25" spans="1:10">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9" t="s">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="J403" s="2"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" ht="14.25" spans="1:10">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -11478,7 +11478,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" ht="14.25" spans="1:10">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -11498,7 +11498,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" ht="14.25" spans="1:10">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -11518,7 +11518,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" ht="14.25" spans="1:10">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -11538,7 +11538,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" ht="14.25" spans="1:10">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9" t="s">
@@ -11564,7 +11564,7 @@
       </c>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" ht="14.25" spans="1:10">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -11584,7 +11584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" ht="14.25" spans="1:10">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -11604,7 +11604,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" ht="14.25" spans="1:10">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -11624,7 +11624,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" ht="14.25" spans="1:10">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -11644,7 +11644,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" ht="14.25" spans="1:10">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9" t="s">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="J413" s="2"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" ht="14.25" spans="1:10">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -11690,7 +11690,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" ht="14.25" spans="1:10">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -11710,7 +11710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" ht="14.25" spans="1:10">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -11730,7 +11730,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" ht="14.25" spans="1:10">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -11750,7 +11750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" ht="14.25" spans="1:10">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9" t="s">
@@ -11776,7 +11776,7 @@
       </c>
       <c r="J418" s="2"/>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" ht="14.25" spans="1:10">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -11796,7 +11796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" ht="14.25" spans="1:10">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9" t="s">
@@ -11822,7 +11822,7 @@
       </c>
       <c r="J420" s="2"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" ht="14.25" spans="1:10">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -11842,7 +11842,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" ht="14.25" spans="1:10">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9" t="s">
@@ -11870,7 +11870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" ht="14.25" spans="1:10">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="10" t="s">
@@ -11898,7 +11898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" ht="14.25" spans="1:10">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9" t="s">
@@ -11924,7 +11924,7 @@
       </c>
       <c r="J424" s="2"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" ht="14.25" spans="1:10">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -11944,7 +11944,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" ht="14.25" spans="1:10">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -11962,7 +11962,7 @@
       </c>
       <c r="J426" s="2"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" ht="14.25" spans="1:10">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -11982,7 +11982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" ht="14.25" spans="1:10">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -12002,7 +12002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" ht="14.25" spans="1:10">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -12022,7 +12022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" ht="14.25" spans="1:10">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -12042,7 +12042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" ht="14.25" spans="1:10">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9" t="s">
@@ -12068,7 +12068,7 @@
       </c>
       <c r="J431" s="2"/>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" ht="14.25" spans="1:10">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -12088,7 +12088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" ht="14.25" spans="1:10">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -12108,7 +12108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" ht="14.25" spans="1:10">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -12128,7 +12128,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" ht="14.25" spans="1:10">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="J435" s="2"/>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" ht="14.25" spans="1:10">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -12166,7 +12166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" ht="14.25" spans="1:10">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -12186,7 +12186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" ht="14.25" spans="1:10">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9" t="s">
@@ -12212,7 +12212,7 @@
       </c>
       <c r="J438" s="2"/>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" ht="14.25" spans="1:10">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -12232,7 +12232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" ht="14.25" spans="1:10">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -12252,7 +12252,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" ht="14.25" spans="1:10">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -12272,7 +12272,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" ht="14.25" spans="1:10">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -12292,7 +12292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" ht="14.25" spans="1:10">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9" t="s">
@@ -12318,7 +12318,7 @@
       </c>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" ht="14.25" spans="1:10">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -12338,7 +12338,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" ht="14.25" spans="1:10">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -12358,7 +12358,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" ht="14.25" spans="1:10">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -12378,7 +12378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" ht="14.25" spans="1:10">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -12398,7 +12398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" ht="14.25" spans="1:10">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9" t="s">
@@ -12424,7 +12424,7 @@
       </c>
       <c r="J448" s="2"/>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" ht="14.25" spans="1:10">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -12444,7 +12444,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" ht="14.25" spans="1:10">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -12464,7 +12464,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" ht="14.25" spans="1:10">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -12484,7 +12484,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" ht="14.25" spans="1:10">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -12504,7 +12504,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" ht="14.25" spans="1:10">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9" t="s">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="J453" s="2"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" ht="14.25" spans="1:10">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -12550,7 +12550,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" ht="14.25" spans="1:10">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9" t="s">
@@ -12576,7 +12576,7 @@
       </c>
       <c r="J455" s="2"/>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" ht="14.25" spans="1:10">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -12596,7 +12596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" ht="14.25" spans="1:10">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9" t="s">
@@ -12624,7 +12624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" ht="14.25" spans="1:10">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9" t="s">
@@ -12652,7 +12652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" ht="14.25" spans="1:10">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9" t="s">
@@ -12678,7 +12678,7 @@
       </c>
       <c r="J459" s="2"/>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" ht="14.25" spans="1:10">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -12698,7 +12698,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" ht="14.25" spans="1:10">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="J461" s="2"/>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" ht="14.25" spans="1:10">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -12736,7 +12736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" ht="14.25" spans="1:10">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -12756,7 +12756,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" ht="14.25" spans="1:10">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -12776,7 +12776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" ht="14.25" spans="1:10">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -12796,7 +12796,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" ht="14.25" spans="1:10">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9" t="s">
@@ -12822,7 +12822,7 @@
       </c>
       <c r="J466" s="2"/>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" ht="14.25" spans="1:10">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -12842,7 +12842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" ht="14.25" spans="1:10">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -12862,7 +12862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" ht="14.25" spans="1:10">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -12882,7 +12882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" ht="14.25" spans="1:10">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -12900,7 +12900,7 @@
       </c>
       <c r="J470" s="2"/>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" ht="14.25" spans="1:10">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -12920,7 +12920,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" ht="14.25" spans="1:10">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -12940,7 +12940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" ht="14.25" spans="1:10">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9" t="s">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="J473" s="2"/>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" ht="14.25" spans="1:10">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -12986,7 +12986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" ht="14.25" spans="1:10">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -13006,7 +13006,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" ht="14.25" spans="1:10">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -13026,7 +13026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" ht="14.25" spans="1:10">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -13046,7 +13046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" ht="14.25" spans="1:10">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9" t="s">
@@ -13072,7 +13072,7 @@
       </c>
       <c r="J478"/>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" ht="14.25" spans="1:10">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -13092,7 +13092,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" ht="14.25" spans="1:10">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -13112,7 +13112,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" ht="14.25" spans="1:10">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -13132,7 +13132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" ht="14.25" spans="1:10">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -13152,7 +13152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" ht="14.25" spans="1:10">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9" t="s">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="J483" s="2"/>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" ht="14.25" spans="1:10">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -13198,7 +13198,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" ht="14.25" spans="1:10">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -13218,7 +13218,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" ht="14.25" spans="1:10">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -13238,7 +13238,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" ht="14.25" spans="1:10">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -13258,7 +13258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" ht="14.25" spans="1:10">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9" t="s">
@@ -13284,7 +13284,7 @@
       </c>
       <c r="J488" s="2"/>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" ht="14.25" spans="1:10">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -13304,7 +13304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" ht="14.25" spans="1:10">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9" t="s">
@@ -13330,7 +13330,7 @@
       </c>
       <c r="J490" s="2"/>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" ht="14.25" spans="1:10">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -13350,7 +13350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" ht="14.25" spans="1:10">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9" t="s">
@@ -13378,7 +13378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" ht="14.25" spans="1:10">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9" t="s">
@@ -13406,7 +13406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" ht="14.25" spans="1:10">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9" t="s">
@@ -13432,7 +13432,7 @@
       </c>
       <c r="J494" s="2"/>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" ht="14.25" spans="1:10">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -13452,7 +13452,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" ht="14.25" spans="1:10">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="J496" s="2"/>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" ht="14.25" spans="1:10">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -13490,7 +13490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" ht="14.25" spans="1:10">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -13510,7 +13510,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" ht="14.25" spans="1:10">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -13530,7 +13530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" ht="14.25" spans="1:10">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -13550,7 +13550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" ht="14.25" spans="1:10">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9" t="s">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="J501" s="2"/>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" ht="14.25" spans="1:10">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -13596,7 +13596,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" ht="14.25" spans="1:10">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -13616,7 +13616,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" ht="14.25" spans="1:10">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -13636,7 +13636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" ht="14.25" spans="1:10">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="J505" s="2"/>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" ht="14.25" spans="1:10">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -13674,7 +13674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" ht="14.25" spans="1:10">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -13694,7 +13694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" ht="14.25" spans="1:10">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9" t="s">
@@ -13720,7 +13720,7 @@
       </c>
       <c r="J508" s="2"/>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" ht="14.25" spans="1:10">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -13740,7 +13740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" ht="14.25" spans="1:10">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -13760,7 +13760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" ht="14.25" spans="1:10">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -13780,7 +13780,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" ht="14.25" spans="1:10">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -13800,7 +13800,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" ht="14.25" spans="1:10">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9" t="s">
@@ -13826,7 +13826,7 @@
       </c>
       <c r="J513"/>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" ht="14.25" spans="1:10">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -13846,7 +13846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" ht="14.25" spans="1:10">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -13866,7 +13866,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" ht="14.25" spans="1:10">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -13886,7 +13886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" ht="14.25" spans="1:10">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -13906,7 +13906,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" ht="14.25" spans="1:10">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9" t="s">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="J518" s="2"/>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" ht="14.25" spans="1:10">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -13952,7 +13952,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" ht="14.25" spans="1:10">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -13972,7 +13972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" ht="14.25" spans="1:10">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -13992,7 +13992,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" ht="14.25" spans="1:10">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -14012,7 +14012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" ht="14.25" spans="1:10">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9" t="s">
@@ -14038,7 +14038,7 @@
       </c>
       <c r="J523" s="2"/>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" ht="14.25" spans="1:10">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -14058,7 +14058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" ht="14.25" spans="1:10">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9" t="s">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="J525" s="2"/>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" ht="14.25" spans="1:10">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -14104,7 +14104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" ht="14.25" spans="1:10">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9" t="s">
@@ -14132,7 +14132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" ht="14.25" spans="1:10">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9" t="s">
@@ -14160,7 +14160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" ht="14.25" spans="1:10">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9" t="s">
@@ -14186,7 +14186,7 @@
       </c>
       <c r="J529" s="2"/>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" ht="14.25" spans="1:10">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -14206,7 +14206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" ht="14.25" spans="1:10">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -14224,7 +14224,7 @@
       </c>
       <c r="J531" s="2"/>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" ht="14.25" spans="1:10">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -14244,7 +14244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" ht="14.25" spans="1:10">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -14264,7 +14264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" ht="14.25" spans="1:10">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -14284,7 +14284,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" ht="14.25" spans="1:10">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -14304,7 +14304,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" ht="14.25" spans="1:10">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9" t="s">
@@ -14330,7 +14330,7 @@
       </c>
       <c r="J536" s="2"/>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" ht="14.25" spans="1:10">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -14350,7 +14350,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" ht="14.25" spans="1:10">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -14370,7 +14370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" ht="14.25" spans="1:10">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -14390,7 +14390,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" ht="14.25" spans="1:10">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="J540" s="2"/>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" ht="14.25" spans="1:10">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -14428,7 +14428,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" ht="14.25" spans="1:10">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -14448,7 +14448,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" ht="14.25" spans="1:10">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9" t="s">
@@ -14474,7 +14474,7 @@
       </c>
       <c r="J543" s="2"/>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" ht="14.25" spans="1:10">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -14494,7 +14494,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" ht="14.25" spans="1:10">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -14514,7 +14514,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" ht="14.25" spans="1:10">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -14534,7 +14534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" ht="14.25" spans="1:10">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -14554,7 +14554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" ht="14.25" spans="1:10">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9" t="s">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="J548"/>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" ht="14.25" spans="1:10">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -14600,7 +14600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" ht="14.25" spans="1:10">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -14620,7 +14620,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" ht="14.25" spans="1:10">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -14640,7 +14640,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" ht="14.25" spans="1:10">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -14660,7 +14660,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="553" spans="1:10">
+    <row r="553" ht="14.25" spans="1:10">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9" t="s">
@@ -14686,7 +14686,7 @@
       </c>
       <c r="J553" s="2"/>
     </row>
-    <row r="554" spans="1:10">
+    <row r="554" ht="14.25" spans="1:10">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -14706,7 +14706,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="555" spans="1:10">
+    <row r="555" ht="14.25" spans="1:10">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -14726,7 +14726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="556" spans="1:10">
+    <row r="556" ht="14.25" spans="1:10">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -14746,7 +14746,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="557" spans="1:10">
+    <row r="557" ht="14.25" spans="1:10">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -14766,7 +14766,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="558" spans="1:10">
+    <row r="558" ht="14.25" spans="1:10">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9" t="s">
@@ -14792,7 +14792,7 @@
       </c>
       <c r="J558" s="2"/>
     </row>
-    <row r="559" spans="1:10">
+    <row r="559" ht="14.25" spans="1:10">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -14812,7 +14812,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="560" spans="1:10">
+    <row r="560" ht="14.25" spans="1:10">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9" t="s">
@@ -14838,7 +14838,7 @@
       </c>
       <c r="J560" s="2"/>
     </row>
-    <row r="561" spans="1:10">
+    <row r="561" ht="14.25" spans="1:10">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -14858,7 +14858,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="562" spans="1:9">
+    <row r="562" ht="14.25" spans="1:9">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9" t="s">
@@ -14883,7 +14883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="563" spans="1:10">
+    <row r="563" ht="14.25" spans="1:10">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -14903,7 +14903,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:10">
+    <row r="564" ht="14.25" spans="1:10">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -14923,7 +14923,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:10">
+    <row r="565" ht="14.25" spans="1:10">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -14943,7 +14943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="566" spans="1:10">
+    <row r="566" ht="14.25" spans="1:10">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -14963,7 +14963,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:10">
+    <row r="567" ht="14.25" spans="1:10">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -14983,7 +14983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="568" spans="1:10">
+    <row r="568" ht="14.25" spans="1:10">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -15003,7 +15003,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:10">
+    <row r="569" ht="14.25" spans="1:10">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -15023,7 +15023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:10">
+    <row r="570" ht="14.25" spans="1:10">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -15043,7 +15043,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:10">
+    <row r="571" ht="14.25" spans="1:10">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -15063,7 +15063,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="572" spans="1:10">
+    <row r="572" ht="14.25" spans="1:10">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -15083,7 +15083,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="573" spans="1:10">
+    <row r="573" ht="14.25" spans="1:10">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -15103,7 +15103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="574" spans="1:10">
+    <row r="574" ht="14.25" spans="1:10">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -15123,7 +15123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="575" spans="1:10">
+    <row r="575" ht="14.25" spans="1:10">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -15143,7 +15143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="576" spans="1:10">
+    <row r="576" ht="14.25" spans="1:10">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -15163,7 +15163,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="577" spans="1:10">
+    <row r="577" ht="14.25" spans="1:10">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -15183,7 +15183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="578" spans="1:10">
+    <row r="578" ht="14.25" spans="1:10">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -15203,7 +15203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="579" spans="1:9">
+    <row r="579" ht="14.25" spans="1:9">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9" t="s">
@@ -15228,7 +15228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="580" spans="1:10">
+    <row r="580" ht="14.25" spans="1:10">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
